--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfa-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfa-Egfr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7057783333333333</v>
+        <v>0.5380440000000001</v>
       </c>
       <c r="H2">
-        <v>2.117335</v>
+        <v>1.614132</v>
       </c>
       <c r="I2">
-        <v>0.9221850367465476</v>
+        <v>0.9003438764610565</v>
       </c>
       <c r="J2">
-        <v>0.9221850367465476</v>
+        <v>0.9003438764610566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N2">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O2">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P2">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q2">
-        <v>1.471773674066666</v>
+        <v>0.2207377520920001</v>
       </c>
       <c r="R2">
-        <v>13.2459630666</v>
+        <v>1.986639768828</v>
       </c>
       <c r="S2">
-        <v>0.01617302458695803</v>
+        <v>0.003150861322887194</v>
       </c>
       <c r="T2">
-        <v>0.01617302458695802</v>
+        <v>0.003150861322887194</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7057783333333333</v>
+        <v>0.5380440000000001</v>
       </c>
       <c r="H3">
-        <v>2.117335</v>
+        <v>1.614132</v>
       </c>
       <c r="I3">
-        <v>0.9221850367465476</v>
+        <v>0.9003438764610565</v>
       </c>
       <c r="J3">
-        <v>0.9221850367465476</v>
+        <v>0.9003438764610566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>305.694519</v>
       </c>
       <c r="O3">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P3">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q3">
-        <v>71.91752270965166</v>
+        <v>54.82570059361201</v>
       </c>
       <c r="R3">
-        <v>647.2577043868649</v>
+        <v>493.431305342508</v>
       </c>
       <c r="S3">
-        <v>0.7902871776490433</v>
+        <v>0.7825946303403816</v>
       </c>
       <c r="T3">
-        <v>0.7902871776490432</v>
+        <v>0.7825946303403816</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7057783333333333</v>
+        <v>0.5380440000000001</v>
       </c>
       <c r="H4">
-        <v>2.117335</v>
+        <v>1.614132</v>
       </c>
       <c r="I4">
-        <v>0.9221850367465476</v>
+        <v>0.9003438764610565</v>
       </c>
       <c r="J4">
-        <v>0.9221850367465476</v>
+        <v>0.9003438764610566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>14.921347</v>
       </c>
       <c r="N4">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q4">
-        <v>10.53116341674833</v>
+        <v>8.028341225268001</v>
       </c>
       <c r="R4">
-        <v>94.78047075073501</v>
+        <v>72.255071027412</v>
       </c>
       <c r="S4">
-        <v>0.1157248345105463</v>
+        <v>0.1145983847977879</v>
       </c>
       <c r="T4">
-        <v>0.1157248345105463</v>
+        <v>0.1145983847977879</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05955433333333334</v>
+        <v>0.05955433333333333</v>
       </c>
       <c r="H5">
         <v>0.178663</v>
       </c>
       <c r="I5">
-        <v>0.07781496325345232</v>
+        <v>0.09965612353894335</v>
       </c>
       <c r="J5">
-        <v>0.07781496325345232</v>
+        <v>0.09965612353894336</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N5">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O5">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P5">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q5">
-        <v>0.1241898423866667</v>
+        <v>0.02443274094188889</v>
       </c>
       <c r="R5">
-        <v>1.11770858148</v>
+        <v>0.219894668477</v>
       </c>
       <c r="S5">
-        <v>0.001364697174410135</v>
+        <v>0.0003487585504351531</v>
       </c>
       <c r="T5">
-        <v>0.001364697174410135</v>
+        <v>0.0003487585504351531</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.05955433333333334</v>
+        <v>0.05955433333333333</v>
       </c>
       <c r="H6">
         <v>0.178663</v>
       </c>
       <c r="I6">
-        <v>0.07781496325345232</v>
+        <v>0.09965612353894335</v>
       </c>
       <c r="J6">
-        <v>0.07781496325345232</v>
+        <v>0.09965612353894336</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>305.694519</v>
       </c>
       <c r="O6">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P6">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q6">
-        <v>6.068477760899667</v>
+        <v>6.068477760899666</v>
       </c>
       <c r="R6">
-        <v>54.61629984809701</v>
+        <v>54.616299848097</v>
       </c>
       <c r="S6">
-        <v>0.06668528032659501</v>
+        <v>0.08662284400563496</v>
       </c>
       <c r="T6">
-        <v>0.066685280326595</v>
+        <v>0.08662284400563496</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.05955433333333334</v>
+        <v>0.05955433333333333</v>
       </c>
       <c r="H7">
         <v>0.178663</v>
       </c>
       <c r="I7">
-        <v>0.07781496325345232</v>
+        <v>0.09965612353894335</v>
       </c>
       <c r="J7">
-        <v>0.07781496325345232</v>
+        <v>0.09965612353894336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>14.921347</v>
       </c>
       <c r="N7">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O7">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P7">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q7">
-        <v>0.8886308730203336</v>
+        <v>0.8886308730203332</v>
       </c>
       <c r="R7">
-        <v>7.997677857183001</v>
+        <v>7.997677857183</v>
       </c>
       <c r="S7">
-        <v>0.009764985752447176</v>
+        <v>0.01268452098287325</v>
       </c>
       <c r="T7">
-        <v>0.009764985752447174</v>
+        <v>0.01268452098287326</v>
       </c>
     </row>
   </sheetData>
